--- a/pset_template.xlsx
+++ b/pset_template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Lavori\_Visual_Basic\Civil3d_PSET_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222BF477-A2A8-4237-B1CE-BF476C2C94D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21F13AF-F703-432C-AB28-915A27AF2728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="1335" windowWidth="38610" windowHeight="12135" xr2:uid="{87E24B2E-0D2A-4976-B669-AF5C2B844E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{87E24B2E-0D2A-4976-B669-AF5C2B844E1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="PSET" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>PSET</t>
   </si>
@@ -45,6 +45,33 @@
   </si>
   <si>
     <t>NOME PARAMETRO</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>NON RINOMINARE IL FOGLIO IL NOME DEVE ESSERE PSET</t>
+  </si>
+  <si>
+    <t>VALORI CORRETTI PER TIPO PARAMETRO:</t>
+  </si>
+  <si>
+    <t>TEXT</t>
+  </si>
+  <si>
+    <t>REAL</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>SE NON SCRIVETE NULLA VERRA' ASSEGNATO AUTOMATICAMENTE TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER TUTTI E' INDIFFERENTE MAIUSCOLO O MINUSCOLO </t>
   </si>
 </sst>
 </file>
@@ -60,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -94,6 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -409,10 +443,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F3F532-C1D2-43C4-8614-92D9530386E6}">
   <sheetPr codeName="Foglio1"/>
-  <dimension ref="A1:C9654"/>
+  <dimension ref="A1:M9654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,9 +454,10 @@
     <col min="1" max="1" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -432,78 +467,180 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10140,36 +10277,12 @@
     <row r="9646" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9647" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="9648" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9649"/>
-      <c r="B9649"/>
-      <c r="C9649"/>
-    </row>
-    <row r="9650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9650"/>
-      <c r="B9650"/>
-      <c r="C9650"/>
-    </row>
-    <row r="9651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9651"/>
-      <c r="B9651"/>
-      <c r="C9651"/>
-    </row>
-    <row r="9652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9652"/>
-      <c r="B9652"/>
-      <c r="C9652"/>
-    </row>
-    <row r="9653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9653"/>
-      <c r="B9653"/>
-      <c r="C9653"/>
-    </row>
-    <row r="9654" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9654"/>
-      <c r="B9654"/>
-      <c r="C9654"/>
-    </row>
+    <row r="9649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9654" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
